--- a/doc/ue_texturestreaming.xlsx
+++ b/doc/ue_texturestreaming.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05B3D4D-8EF6-4357-8C36-A50DACDB648B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="127">
   <si>
     <t>图像序列使用Mipmap的方法。该方法可以缩短图像序列的加载时间，但不会牺牲品质</t>
   </si>
@@ -778,13 +777,59 @@
   </si>
   <si>
     <t>每一帧都进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FRenderAssetStreamingManager::UpdateResourceStreaming( float DeltaTime, bool bProcessEverything/*=false*/ )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先准备viewinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetupViewInfos( DeltaTime );</t>
+  </si>
+  <si>
+    <t>void UGameViewportClient::Draw(FViewport* InViewport, FCanvas* SceneCanvas)</t>
+  </si>
+  <si>
+    <t>每次在设置视野信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Add view information for resource streaming. Allow up to 5X boost for small FOV.</t>
+  </si>
+  <si>
+    <t>const float StreamingScale = 1.f / FMath::Clamp&lt;float&gt;(View-&gt;LODDistanceFactor, .2f, 1.f);</t>
+  </si>
+  <si>
+    <t>IStreamingManager::Get().AddViewInformation(View-&gt;ViewMatrices.GetViewOrigin(), View-&gt;UnscaledViewRect.Width(), View-&gt;UnscaledViewRect.Width() * View-&gt;ViewMatrices.GetProjectionMatrix().M[0][0], StreamingScale);</t>
+  </si>
+  <si>
+    <t>MyWorld-&gt;ViewLocationsRenderedLastFrame.Add(View-&gt;ViewMatrices.GetViewOrigin());</t>
+  </si>
+  <si>
+    <t>加入到StreamingManager里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前看这部分牵扯到摄像机计算，异步加载等，没办法手动完成，即：大世界加载的时候，想把这部分包含进去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大世界只能加载LevelStream，但TextureStreaming没办法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1311,7 +1356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1422,7 +1467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8524016A-D4FB-4A4E-AE60-BA223E38AFA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1437,7 +1482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE34B894-3A95-4B26-B214-381AB3E2B9F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1452,7 +1497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BD5CFB-6D2F-4E02-BC3E-09131A1A51A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1635,7 +1680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9988AD9-2663-49A1-8D54-E0D6E0C20177}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1651,11 +1696,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C7DE3E-9043-42FC-BACA-9BE823578FFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1687,7 +1732,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -1734,11 +1779,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB39BA8-1D98-481E-BA2C-1D0AA8D2B7C2}">
-  <dimension ref="A3:U75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:U77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1746,359 +1791,401 @@
     <col min="1" max="1" width="27.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G3" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C17" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
+      <c r="N17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
+      <c r="O18" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D18" t="s">
+      <c r="O19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
+      <c r="O20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
+      <c r="O21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+      <c r="O22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="3">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B25" s="3">
         <v>1</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="3">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B27" s="3">
         <v>2</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C28" s="3" t="s">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C30" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D31" t="s">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="E33" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C39" s="3" t="s">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C41" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="N39" s="2" t="s">
+      <c r="N41" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B40">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B42">
         <v>1</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C42" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B41">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B43">
         <v>2</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C43" s="3" t="s">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C45" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C44" t="s">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C51" t="s">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D52" s="2" t="s">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D54" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N52" s="2" t="s">
+      <c r="N54" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O52" s="2" t="s">
+      <c r="O54" s="2" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D54" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D55" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D56" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D58" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C60" t="s">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D61" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N61" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="U61" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D62" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D63" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="U63" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D64" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D65" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D65" s="3" t="s">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D67" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D66" t="s">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D67" s="3" t="s">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D69" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D68" t="s">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C71" t="s">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D72" s="3" t="s">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D74" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D73" t="s">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D75" t="s">
         <v>74</v>
       </c>
-      <c r="K73" s="3" t="s">
+      <c r="K75" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D74" s="3" t="s">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D76" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D75" t="s">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D77" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2110,7 +2197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5F23B8-CD9E-4317-95D2-D2FEF5F261DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2123,7 +2210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9300C4AA-18C6-434E-8B2E-7B37310205C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/doc/ue_texturestreaming.xlsx
+++ b/doc/ue_texturestreaming.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="简介" sheetId="1" r:id="rId1"/>
     <sheet name="FBulkData" sheetId="2" r:id="rId2"/>
     <sheet name="LOD运行原理" sheetId="3" r:id="rId3"/>
     <sheet name="举例" sheetId="4" r:id="rId4"/>
     <sheet name="纹理格式和其字节大小" sheetId="5" r:id="rId5"/>
     <sheet name="按照屏幕计算" sheetId="6" r:id="rId6"/>
-    <sheet name="动态加载卸载流程" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet3" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet4" sheetId="9" r:id="rId9"/>
+    <sheet name="动态加载流程" sheetId="7" r:id="rId7"/>
+    <sheet name="动态卸载流程" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="141">
   <si>
     <t>图像序列使用Mipmap的方法。该方法可以缩短图像序列的加载时间，但不会牺牲品质</t>
   </si>
@@ -824,13 +824,60 @@
   <si>
     <t>大世界只能加载LevelStream，但TextureStreaming没办法</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行时实时根据摄像机和Texture的距离，生成加载卸载其mipmap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3D和OPENGL的应该是无法卸载的，一旦生成mipmap就常驻内存了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Update ResidentMips now as it is guarantied to not change here (since no pending requests).</t>
+  </si>
+  <si>
+    <t>ResidentMips = ResourceState.NumResidentLODs;</t>
+  </si>
+  <si>
+    <t>常驻的LOD级别????</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (LocalWantedMips != ResidentMips)</t>
+  </si>
+  <si>
+    <t>if (LocalWantedMips &lt; ResidentMips)</t>
+  </si>
+  <si>
+    <t>else // WantedMips &gt; ResidentMips</t>
+  </si>
+  <si>
+    <t>const bool bShouldPrioritizeAsyncIORequest = (bLocalForceFullyLoadHeuristic || bIsTerrainTexture || bLoadWithHigherPriority) &amp;&amp; LocalWantedMips &lt;= LocalVisibleWantedMips;</t>
+  </si>
+  <si>
+    <t>UpdateStreamingStatus(false);</t>
+  </si>
+  <si>
+    <t>TrackRenderAssetEvent(this, RenderAsset, bLocalForceFullyLoadHeuristic != 0, &amp;Manager);</t>
+  </si>
+  <si>
+    <t>比常驻的小就卸载？比常驻的大就加载？？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">可以使用指令：r.Streaming.DropMips 2 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢掉Cache Mips和Hidden Mips  注：0 : 不丢掉任何mip。 1 : 丢掉缓存的mip。 2 : 丢掉缓存和隐藏的mip。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -901,6 +948,13 @@
       <name val="Segoe UI Emoji"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -922,7 +976,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -930,6 +984,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1360,7 +1415,7 @@
   <dimension ref="B2:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U28" sqref="U28"/>
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1483,16 +1538,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B5:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1501,7 +1568,7 @@
   <dimension ref="B3:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1700,7 +1767,7 @@
   <dimension ref="A4:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1782,7 +1849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
@@ -2198,26 +2265,145 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C3" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C5" s="7"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C6:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C6" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D11" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/ue_texturestreaming.xlsx
+++ b/doc/ue_texturestreaming.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362E4E94-92C8-4379-A0A6-BDCA68E8B2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="669" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="1" r:id="rId1"/>
@@ -13,9 +14,10 @@
     <sheet name="举例" sheetId="4" r:id="rId4"/>
     <sheet name="纹理格式和其字节大小" sheetId="5" r:id="rId5"/>
     <sheet name="按照屏幕计算" sheetId="6" r:id="rId6"/>
-    <sheet name="动态加载流程" sheetId="7" r:id="rId7"/>
-    <sheet name="动态卸载流程" sheetId="9" r:id="rId8"/>
+    <sheet name="StreamIn流程" sheetId="7" r:id="rId7"/>
+    <sheet name="StreamOut流程" sheetId="9" r:id="rId8"/>
     <sheet name="Sheet3" sheetId="8" r:id="rId9"/>
+    <sheet name="bulkdata和Texture " sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="165">
   <si>
     <t>图像序列使用Mipmap的方法。该方法可以缩短图像序列的加载时间，但不会牺牲品质</t>
   </si>
@@ -595,288 +597,365 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>DoAsyncCreateWithNewMips(Context);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">调用RHIAsyncCreateTexture2D，生成Texture </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上面可能创建多个，这个里面怎么就创建了一个？？？！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoFreeNewMips(Context);</t>
+  </si>
+  <si>
+    <t>释放前面分配的内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放的是所有？？？？！上面只创建了一个texture???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClearIORequests(Context);</t>
+  </si>
+  <si>
+    <t>等待所有结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PushTask(Context, TT_Render, SRA_UPDATE_CALLBACK(Finalize), TT_Render, SRA_UPDATE_CALLBACK(Cancel));</t>
+  </si>
+  <si>
+    <t>设置回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！原来是一次内部全部创建了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FTexture2DStreamIn_IO_AsyncCreate::Finalize(const FContext&amp; Context)</t>
+  </si>
+  <si>
+    <t>通知渲染线程进行的MIPMAP的设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoCopySharedMips(Context);</t>
+  </si>
+  <si>
+    <t>!!!和渲染引擎有关系，前面创建的多级MIPMAP一起设置了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoFinishUpdate(Context);</t>
+  </si>
+  <si>
+    <t>设置数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool UTexture2D::StreamIn(int32 NewMipCount, bool bHighPrio)</t>
+  </si>
+  <si>
+    <t>PendingUpdate = new FTexture2DStreamIn_IO_AsyncCreate(this, bHighPrio);</t>
+  </si>
+  <si>
+    <t>void UGameEngine::Tick( float DeltaSeconds, bool bIdleMode )</t>
+  </si>
+  <si>
+    <t>IStreamingManager::Get().Tick( DeltaSeconds );</t>
+  </si>
+  <si>
+    <t>void FStreamingManagerCollection::Tick( float DeltaTime, bool bProcessEverything )</t>
+  </si>
+  <si>
+    <t>IStreamingManager::Tick(DeltaTime, bProcessEverything);</t>
+  </si>
+  <si>
+    <t>void IStreamingManager::Tick( float DeltaTime, bool bProcessEverything/*=false*/ )</t>
+  </si>
+  <si>
+    <t>UpdateResourceStreaming( DeltaTime, bProcessEverything );</t>
+  </si>
+  <si>
+    <t>void FStreamingManagerCollection::UpdateResourceStreaming( float DeltaTime, bool bProcessEverything/*=false*/ )</t>
+  </si>
+  <si>
+    <t>for( int32 ManagerIndex=0; ManagerIndex&lt;StreamingManagers.Num(); ManagerIndex++ )</t>
+  </si>
+  <si>
+    <t>IStreamingManager* StreamingManager = StreamingManagers[ManagerIndex];</t>
+  </si>
+  <si>
+    <t>StreamingManager-&gt;UpdateResourceStreaming( DeltaTime, bProcessEverything );</t>
+  </si>
+  <si>
+    <t>挨个遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FRenderAssetStreamingManager::UpdateResourceStreaming( float DeltaTime, bool bProcessEverything/*=false*/ )</t>
+  </si>
+  <si>
+    <t>StreamRenderAssets(bProcessEverything);</t>
+  </si>
+  <si>
+    <t>void FRenderAssetStreamingManager::StreamRenderAssets( bool bProcessEverything )</t>
+  </si>
+  <si>
+    <t>for (int32 AssetIndex : AsyncTask.GetLoadRequests())</t>
+  </si>
+  <si>
+    <t>if (StreamingRenderAssets.IsValidIndex(AssetIndex) &amp;&amp; !VisibleFastResponseRenderAssetIndices.Contains(AssetIndex))</t>
+  </si>
+  <si>
+    <t>StreamingRenderAssets[AssetIndex].StreamWantedMips(*this);</t>
+  </si>
+  <si>
+    <t>这块需要注意一下，怎么计算的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FStreamingRenderAsset::StreamWantedMips(FRenderAssetStreamingManager&amp; Manager)</t>
+  </si>
+  <si>
+    <t>StreamWantedMips_Internal(Manager, false);</t>
+  </si>
+  <si>
+    <t>创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能是记载也可能是卸载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！重点分析一下卸载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载结束后创建对应的Texture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原生的引擎方案，例如D3D和OPENGL，生成的mipmap都是无法卸载的，会一直常驻内存，而UE的可以卸载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdatePendingStates(false);</t>
+  </si>
+  <si>
+    <t>计算，放入StreamingRenderAssets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrepareAsyncTask(bProcessEverything || Settings.bStressTest);</t>
+  </si>
+  <si>
+    <t>AsyncWork-&gt;GetTask().ReleaseAsyncViews();</t>
+  </si>
+  <si>
+    <t>准备进行MipCalcTask的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收MipCalcTask的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一帧都进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FRenderAssetStreamingManager::UpdateResourceStreaming( float DeltaTime, bool bProcessEverything/*=false*/ )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先准备viewinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetupViewInfos( DeltaTime );</t>
+  </si>
+  <si>
+    <t>void UGameViewportClient::Draw(FViewport* InViewport, FCanvas* SceneCanvas)</t>
+  </si>
+  <si>
+    <t>每次在设置视野信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Add view information for resource streaming. Allow up to 5X boost for small FOV.</t>
+  </si>
+  <si>
+    <t>const float StreamingScale = 1.f / FMath::Clamp&lt;float&gt;(View-&gt;LODDistanceFactor, .2f, 1.f);</t>
+  </si>
+  <si>
+    <t>IStreamingManager::Get().AddViewInformation(View-&gt;ViewMatrices.GetViewOrigin(), View-&gt;UnscaledViewRect.Width(), View-&gt;UnscaledViewRect.Width() * View-&gt;ViewMatrices.GetProjectionMatrix().M[0][0], StreamingScale);</t>
+  </si>
+  <si>
+    <t>MyWorld-&gt;ViewLocationsRenderedLastFrame.Add(View-&gt;ViewMatrices.GetViewOrigin());</t>
+  </si>
+  <si>
+    <t>加入到StreamingManager里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前看这部分牵扯到摄像机计算，异步加载等，没办法手动完成，即：大世界加载的时候，想把这部分包含进去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大世界只能加载LevelStream，但TextureStreaming没办法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行时实时根据摄像机和Texture的距离，生成加载卸载其mipmap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3D和OPENGL的应该是无法卸载的，一旦生成mipmap就常驻内存了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Update ResidentMips now as it is guarantied to not change here (since no pending requests).</t>
+  </si>
+  <si>
+    <t>ResidentMips = ResourceState.NumResidentLODs;</t>
+  </si>
+  <si>
+    <t>常驻的LOD级别????</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (LocalWantedMips != ResidentMips)</t>
+  </si>
+  <si>
+    <t>if (LocalWantedMips &lt; ResidentMips)</t>
+  </si>
+  <si>
+    <t>else // WantedMips &gt; ResidentMips</t>
+  </si>
+  <si>
+    <t>const bool bShouldPrioritizeAsyncIORequest = (bLocalForceFullyLoadHeuristic || bIsTerrainTexture || bLoadWithHigherPriority) &amp;&amp; LocalWantedMips &lt;= LocalVisibleWantedMips;</t>
+  </si>
+  <si>
+    <t>UpdateStreamingStatus(false);</t>
+  </si>
+  <si>
+    <t>TrackRenderAssetEvent(this, RenderAsset, bLocalForceFullyLoadHeuristic != 0, &amp;Manager);</t>
+  </si>
+  <si>
+    <t>比常驻的小就卸载？比常驻的大就加载？？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">可以使用指令：r.Streaming.DropMips 2 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢掉Cache Mips和Hidden Mips  注：0 : 不丢掉任何mip。 1 : 丢掉缓存的mip。 2 : 丢掉缓存和隐藏的mip。</t>
+  </si>
+  <si>
     <t>void FTexture2DStreamIn_IO_AsyncCreate::AsyncCreate(const FContext&amp; Context)</t>
-  </si>
-  <si>
-    <t>DoAsyncCreateWithNewMips(Context);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">调用RHIAsyncCreateTexture2D，生成Texture </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上面可能创建多个，这个里面怎么就创建了一个？？？！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DoFreeNewMips(Context);</t>
-  </si>
-  <si>
-    <t>释放前面分配的内存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放的是所有？？？？！上面只创建了一个texture???</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClearIORequests(Context);</t>
-  </si>
-  <si>
-    <t>等待所有结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PushTask(Context, TT_Render, SRA_UPDATE_CALLBACK(Finalize), TT_Render, SRA_UPDATE_CALLBACK(Cancel));</t>
-  </si>
-  <si>
-    <t>设置回调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！原来是一次内部全部创建了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void FTexture2DStreamIn_IO_AsyncCreate::Finalize(const FContext&amp; Context)</t>
-  </si>
-  <si>
-    <t>通知渲染线程进行的MIPMAP的设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DoCopySharedMips(Context);</t>
-  </si>
-  <si>
-    <t>!!!和渲染引擎有关系，前面创建的多级MIPMAP一起设置了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DoFinishUpdate(Context);</t>
-  </si>
-  <si>
-    <t>设置数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool UTexture2D::StreamIn(int32 NewMipCount, bool bHighPrio)</t>
-  </si>
-  <si>
-    <t>PendingUpdate = new FTexture2DStreamIn_IO_AsyncCreate(this, bHighPrio);</t>
-  </si>
-  <si>
-    <t>void UGameEngine::Tick( float DeltaSeconds, bool bIdleMode )</t>
-  </si>
-  <si>
-    <t>IStreamingManager::Get().Tick( DeltaSeconds );</t>
-  </si>
-  <si>
-    <t>void FStreamingManagerCollection::Tick( float DeltaTime, bool bProcessEverything )</t>
-  </si>
-  <si>
-    <t>IStreamingManager::Tick(DeltaTime, bProcessEverything);</t>
-  </si>
-  <si>
-    <t>void IStreamingManager::Tick( float DeltaTime, bool bProcessEverything/*=false*/ )</t>
-  </si>
-  <si>
-    <t>UpdateResourceStreaming( DeltaTime, bProcessEverything );</t>
-  </si>
-  <si>
-    <t>void FStreamingManagerCollection::UpdateResourceStreaming( float DeltaTime, bool bProcessEverything/*=false*/ )</t>
-  </si>
-  <si>
-    <t>for( int32 ManagerIndex=0; ManagerIndex&lt;StreamingManagers.Num(); ManagerIndex++ )</t>
-  </si>
-  <si>
-    <t>IStreamingManager* StreamingManager = StreamingManagers[ManagerIndex];</t>
-  </si>
-  <si>
-    <t>StreamingManager-&gt;UpdateResourceStreaming( DeltaTime, bProcessEverything );</t>
-  </si>
-  <si>
-    <t>挨个遍历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void FRenderAssetStreamingManager::UpdateResourceStreaming( float DeltaTime, bool bProcessEverything/*=false*/ )</t>
-  </si>
-  <si>
-    <t>StreamRenderAssets(bProcessEverything);</t>
-  </si>
-  <si>
-    <t>void FRenderAssetStreamingManager::StreamRenderAssets( bool bProcessEverything )</t>
-  </si>
-  <si>
-    <t>for (int32 AssetIndex : AsyncTask.GetLoadRequests())</t>
-  </si>
-  <si>
-    <t>if (StreamingRenderAssets.IsValidIndex(AssetIndex) &amp;&amp; !VisibleFastResponseRenderAssetIndices.Contains(AssetIndex))</t>
-  </si>
-  <si>
-    <t>StreamingRenderAssets[AssetIndex].StreamWantedMips(*this);</t>
-  </si>
-  <si>
-    <t>这块需要注意一下，怎么计算的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void FStreamingRenderAsset::StreamWantedMips(FRenderAssetStreamingManager&amp; Manager)</t>
-  </si>
-  <si>
-    <t>StreamWantedMips_Internal(Manager, false);</t>
-  </si>
-  <si>
-    <t>创建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能是记载也可能是卸载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！重点分析一下卸载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主线程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加载结束后创建对应的Texture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原生的引擎方案，例如D3D和OPENGL，生成的mipmap都是无法卸载的，会一直常驻内存，而UE的可以卸载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpdatePendingStates(false);</t>
-  </si>
-  <si>
-    <t>计算，放入StreamingRenderAssets</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PrepareAsyncTask(bProcessEverything || Settings.bStressTest);</t>
-  </si>
-  <si>
-    <t>AsyncWork-&gt;GetTask().ReleaseAsyncViews();</t>
-  </si>
-  <si>
-    <t>准备进行MipCalcTask的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回收MipCalcTask的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一帧都进行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void FRenderAssetStreamingManager::UpdateResourceStreaming( float DeltaTime, bool bProcessEverything/*=false*/ )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先准备viewinfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SetupViewInfos( DeltaTime );</t>
-  </si>
-  <si>
-    <t>void UGameViewportClient::Draw(FViewport* InViewport, FCanvas* SceneCanvas)</t>
-  </si>
-  <si>
-    <t>每次在设置视野信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>// Add view information for resource streaming. Allow up to 5X boost for small FOV.</t>
-  </si>
-  <si>
-    <t>const float StreamingScale = 1.f / FMath::Clamp&lt;float&gt;(View-&gt;LODDistanceFactor, .2f, 1.f);</t>
-  </si>
-  <si>
-    <t>IStreamingManager::Get().AddViewInformation(View-&gt;ViewMatrices.GetViewOrigin(), View-&gt;UnscaledViewRect.Width(), View-&gt;UnscaledViewRect.Width() * View-&gt;ViewMatrices.GetProjectionMatrix().M[0][0], StreamingScale);</t>
-  </si>
-  <si>
-    <t>MyWorld-&gt;ViewLocationsRenderedLastFrame.Add(View-&gt;ViewMatrices.GetViewOrigin());</t>
-  </si>
-  <si>
-    <t>加入到StreamingManager里面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前看这部分牵扯到摄像机计算，异步加载等，没办法手动完成，即：大世界加载的时候，想把这部分包含进去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大世界只能加载LevelStream，但TextureStreaming没办法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运行时实时根据摄像机和Texture的距离，生成加载卸载其mipmap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D3D和OPENGL的应该是无法卸载的，一旦生成mipmap就常驻内存了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>// Update ResidentMips now as it is guarantied to not change here (since no pending requests).</t>
-  </si>
-  <si>
-    <t>ResidentMips = ResourceState.NumResidentLODs;</t>
-  </si>
-  <si>
-    <t>常驻的LOD级别????</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if (LocalWantedMips != ResidentMips)</t>
-  </si>
-  <si>
-    <t>if (LocalWantedMips &lt; ResidentMips)</t>
-  </si>
-  <si>
-    <t>else // WantedMips &gt; ResidentMips</t>
-  </si>
-  <si>
-    <t>const bool bShouldPrioritizeAsyncIORequest = (bLocalForceFullyLoadHeuristic || bIsTerrainTexture || bLoadWithHigherPriority) &amp;&amp; LocalWantedMips &lt;= LocalVisibleWantedMips;</t>
-  </si>
-  <si>
-    <t>UpdateStreamingStatus(false);</t>
-  </si>
-  <si>
-    <t>TrackRenderAssetEvent(this, RenderAsset, bLocalForceFullyLoadHeuristic != 0, &amp;Manager);</t>
-  </si>
-  <si>
-    <t>比常驻的小就卸载？比常驻的大就加载？？？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">可以使用指令：r.Streaming.DropMips 2 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丢掉Cache Mips和Hidden Mips  注：0 : 不丢掉任何mip。 1 : 丢掉缓存的mip。 2 : 丢掉缓存和隐藏的mip。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Texture对应的bulk文件仅仅包含数据，存储的数据，没有其他格式等信息 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FTexture2DStreamIn_IO::SetIORequests(const FContext&amp; Context)</t>
+  </si>
+  <si>
+    <t>异步加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for (int32 MipIndex = PendingFirstLODIdx; MipIndex &lt; CurrentFirstLODIdx &amp;&amp; !IsCancelled(); ++MipIndex)</t>
+  </si>
+  <si>
+    <t>check(MipData[MipIndex]);</t>
+  </si>
+  <si>
+    <t>int64 BulkDataSize = MipMap.BulkData.GetBulkDataSize();</t>
+  </si>
+  <si>
+    <t>if (BulkDataSize &gt; 0)</t>
+  </si>
+  <si>
+    <t>// Increment as we push the requests. If a requests complete immediately, then it will call the callback</t>
+  </si>
+  <si>
+    <t>// but that won't do anything because the tick would not try to acquire the lock since it is already locked.</t>
+  </si>
+  <si>
+    <t>TaskSynchronization.Increment();</t>
+  </si>
+  <si>
+    <t>// Validate buffer size for the mip, so we don't overrun it on streaming</t>
+  </si>
+  <si>
+    <t>ValidateMipBulkDataSize(*Context.Texture, MipMap.SizeX, MipMap.SizeY, MipIndex, BulkDataSize);</t>
+  </si>
+  <si>
+    <t>IORequests[MipIndex] = MipMap.BulkData.CreateStreamingRequest(</t>
+  </si>
+  <si>
+    <t>0,</t>
+  </si>
+  <si>
+    <t>BulkDataSize,</t>
+  </si>
+  <si>
+    <t>bPrioritizedIORequest ? (AIOP_FLAG_DONTCACHE|AIOP_BelowNormal) : (AIOP_FLAG_DONTCACHE|AIOP_Low),</t>
+  </si>
+  <si>
+    <t>&amp;AsyncFileCallBack,</t>
+  </si>
+  <si>
+    <t>(uint8*)MipData[MipIndex]);</t>
+  </si>
+  <si>
+    <t>else // Bulk data size can only be 0 when not available, in which case, we need to recache the file state.</t>
+  </si>
+  <si>
+    <t>bFailedOnIOError = true;</t>
+  </si>
+  <si>
+    <t>MarkAsCancelled();</t>
+  </si>
+  <si>
+    <t>break;</t>
+  </si>
+  <si>
+    <t>一次有可能记载多个，每一个都是单独的数据，根据偏移计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulk文件存的数据可以不是1-12个级别，主要是根据原始图片的大小来算的，例如512*512就只有1-4仅仅是1-5都可以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1411,7 +1490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1460,10 +1539,10 @@
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="N21" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.2">
@@ -1521,8 +1600,195 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50ADB455-A061-4668-9DA3-6692077BF17A}">
+  <dimension ref="B3:Q42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D9" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D13" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1537,7 +1803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B5:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1548,12 +1814,12 @@
   <sheetData>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1564,7 +1830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1747,7 +2013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1763,7 +2029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A4:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1794,34 +2060,34 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1846,11 +2112,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:U77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1860,10 +2126,10 @@
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F2" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -1871,7 +2137,7 @@
         <v>47</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -1884,71 +2150,71 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C17" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
@@ -1956,23 +2222,23 @@
         <v>9</v>
       </c>
       <c r="O19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
@@ -1980,12 +2246,12 @@
         <v>15</v>
       </c>
       <c r="O22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
@@ -1993,12 +2259,12 @@
         <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
@@ -2011,22 +2277,22 @@
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C30" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
@@ -2036,7 +2302,7 @@
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.2">
@@ -2046,7 +2312,7 @@
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.2">
@@ -2061,12 +2327,12 @@
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.2">
@@ -2076,10 +2342,10 @@
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N41" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.2">
@@ -2099,18 +2365,18 @@
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>78</v>
+      <c r="B44" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
@@ -2166,61 +2432,61 @@
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D63" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N63" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="N63" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="U63" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D65" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N65" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="N65" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D67" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D69" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
@@ -2230,30 +2496,30 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D74" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D75" t="s">
+        <v>73</v>
+      </c>
+      <c r="K75" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="K75" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D76" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2264,23 +2530,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C3" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
@@ -2302,7 +2568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="C6:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2313,27 +2579,27 @@
   <sheetData>
     <row r="6" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D11" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.2">
@@ -2343,7 +2609,7 @@
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.2">
@@ -2363,7 +2629,7 @@
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.2">
@@ -2373,7 +2639,7 @@
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.2">
@@ -2388,12 +2654,12 @@
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.2">

--- a/doc/ue_texturestreaming.xlsx
+++ b/doc/ue_texturestreaming.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362E4E94-92C8-4379-A0A6-BDCA68E8B2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="669" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="669" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="1" r:id="rId1"/>
@@ -18,6 +17,7 @@
     <sheet name="StreamOut流程" sheetId="9" r:id="rId8"/>
     <sheet name="Sheet3" sheetId="8" r:id="rId9"/>
     <sheet name="bulkdata和Texture " sheetId="10" r:id="rId10"/>
+    <sheet name="pool的用处和设置" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="202">
   <si>
     <t>图像序列使用Mipmap的方法。该方法可以缩短图像序列的加载时间，但不会牺牲品质</t>
   </si>
@@ -865,97 +865,223 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>丢掉Cache Mips和Hidden Mips  注：0 : 不丢掉任何mip。 1 : 丢掉缓存的mip。 2 : 丢掉缓存和隐藏的mip。</t>
+  </si>
+  <si>
+    <t>void FTexture2DStreamIn_IO_AsyncCreate::AsyncCreate(const FContext&amp; Context)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Texture对应的bulk文件仅仅包含数据，存储的数据，没有其他格式等信息 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FTexture2DStreamIn_IO::SetIORequests(const FContext&amp; Context)</t>
+  </si>
+  <si>
+    <t>异步加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for (int32 MipIndex = PendingFirstLODIdx; MipIndex &lt; CurrentFirstLODIdx &amp;&amp; !IsCancelled(); ++MipIndex)</t>
+  </si>
+  <si>
+    <t>check(MipData[MipIndex]);</t>
+  </si>
+  <si>
+    <t>int64 BulkDataSize = MipMap.BulkData.GetBulkDataSize();</t>
+  </si>
+  <si>
+    <t>if (BulkDataSize &gt; 0)</t>
+  </si>
+  <si>
+    <t>// Increment as we push the requests. If a requests complete immediately, then it will call the callback</t>
+  </si>
+  <si>
+    <t>// but that won't do anything because the tick would not try to acquire the lock since it is already locked.</t>
+  </si>
+  <si>
+    <t>TaskSynchronization.Increment();</t>
+  </si>
+  <si>
+    <t>// Validate buffer size for the mip, so we don't overrun it on streaming</t>
+  </si>
+  <si>
+    <t>ValidateMipBulkDataSize(*Context.Texture, MipMap.SizeX, MipMap.SizeY, MipIndex, BulkDataSize);</t>
+  </si>
+  <si>
+    <t>IORequests[MipIndex] = MipMap.BulkData.CreateStreamingRequest(</t>
+  </si>
+  <si>
+    <t>0,</t>
+  </si>
+  <si>
+    <t>BulkDataSize,</t>
+  </si>
+  <si>
+    <t>bPrioritizedIORequest ? (AIOP_FLAG_DONTCACHE|AIOP_BelowNormal) : (AIOP_FLAG_DONTCACHE|AIOP_Low),</t>
+  </si>
+  <si>
+    <t>&amp;AsyncFileCallBack,</t>
+  </si>
+  <si>
+    <t>(uint8*)MipData[MipIndex]);</t>
+  </si>
+  <si>
+    <t>else // Bulk data size can only be 0 when not available, in which case, we need to recache the file state.</t>
+  </si>
+  <si>
+    <t>bFailedOnIOError = true;</t>
+  </si>
+  <si>
+    <t>MarkAsCancelled();</t>
+  </si>
+  <si>
+    <t>break;</t>
+  </si>
+  <si>
+    <t>一次有可能记载多个，每一个都是单独的数据，根据偏移计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulk文件存的数据可以不是1-12个级别，主要是根据原始图片的大小来算的，例如512*512就只有1-4仅仅是1-5都可以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">可以使用指令：r.Streaming.DropMips 2 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>丢掉Cache Mips和Hidden Mips  注：0 : 不丢掉任何mip。 1 : 丢掉缓存的mip。 2 : 丢掉缓存和隐藏的mip。</t>
-  </si>
-  <si>
-    <t>void FTexture2DStreamIn_IO_AsyncCreate::AsyncCreate(const FContext&amp; Context)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Texture对应的bulk文件仅仅包含数据，存储的数据，没有其他格式等信息 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void FTexture2DStreamIn_IO::SetIORequests(const FContext&amp; Context)</t>
-  </si>
-  <si>
-    <t>异步加载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>for (int32 MipIndex = PendingFirstLODIdx; MipIndex &lt; CurrentFirstLODIdx &amp;&amp; !IsCancelled(); ++MipIndex)</t>
-  </si>
-  <si>
-    <t>check(MipData[MipIndex]);</t>
-  </si>
-  <si>
-    <t>int64 BulkDataSize = MipMap.BulkData.GetBulkDataSize();</t>
-  </si>
-  <si>
-    <t>if (BulkDataSize &gt; 0)</t>
-  </si>
-  <si>
-    <t>// Increment as we push the requests. If a requests complete immediately, then it will call the callback</t>
-  </si>
-  <si>
-    <t>// but that won't do anything because the tick would not try to acquire the lock since it is already locked.</t>
-  </si>
-  <si>
-    <t>TaskSynchronization.Increment();</t>
-  </si>
-  <si>
-    <t>// Validate buffer size for the mip, so we don't overrun it on streaming</t>
-  </si>
-  <si>
-    <t>ValidateMipBulkDataSize(*Context.Texture, MipMap.SizeX, MipMap.SizeY, MipIndex, BulkDataSize);</t>
-  </si>
-  <si>
-    <t>IORequests[MipIndex] = MipMap.BulkData.CreateStreamingRequest(</t>
-  </si>
-  <si>
-    <t>0,</t>
-  </si>
-  <si>
-    <t>BulkDataSize,</t>
-  </si>
-  <si>
-    <t>bPrioritizedIORequest ? (AIOP_FLAG_DONTCACHE|AIOP_BelowNormal) : (AIOP_FLAG_DONTCACHE|AIOP_Low),</t>
-  </si>
-  <si>
-    <t>&amp;AsyncFileCallBack,</t>
-  </si>
-  <si>
-    <t>(uint8*)MipData[MipIndex]);</t>
-  </si>
-  <si>
-    <t>else // Bulk data size can only be 0 when not available, in which case, we need to recache the file state.</t>
-  </si>
-  <si>
-    <t>bFailedOnIOError = true;</t>
-  </si>
-  <si>
-    <t>MarkAsCancelled();</t>
-  </si>
-  <si>
-    <t>break;</t>
-  </si>
-  <si>
-    <t>一次有可能记载多个，每一个都是单独的数据，根据偏移计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bulk文件存的数据可以不是1-12个级别，主要是根据原始图片的大小来算的，例如512*512就只有1-4仅仅是1-5都可以</t>
+    <t>注意看这个指令的执行流程：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropMips = CVarStreamingDropMips.GetValueOnAnyThread();</t>
+  </si>
+  <si>
+    <t>获取CMD的输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FRenderAssetStreamingMipCalcTask::UpdateBudgetedMips_Async()</t>
+  </si>
+  <si>
+    <t>#if !UE_BUILD_SHIPPING</t>
+  </si>
+  <si>
+    <t>if (Settings.DropMips &gt; 0)</t>
+  </si>
+  <si>
+    <t>for (FStreamingRenderAsset&amp; StreamingRenderAsset : StreamingRenderAssets)</t>
+  </si>
+  <si>
+    <t>if (IsAborted()) break;</t>
+  </si>
+  <si>
+    <t>if (Settings.DropMips == 1)</t>
+  </si>
+  <si>
+    <t>StreamingRenderAsset.BudgetedMips = FMath::Min&lt;int32&gt;(StreamingRenderAsset.BudgetedMips, StreamingRenderAsset.GetPerfectWantedMips());</t>
+  </si>
+  <si>
+    <t>#endif</t>
+  </si>
+  <si>
+    <t>StreamingRenderAsset.BudgetedMips = FMath::Min&lt;int32&gt;(StreamingRenderAsset.BudgetedMips, StreamingRenderAsset.VisibleWantedMips);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非发布模式下，直接设置了所有StreamingRenderAssets的BudgetedMips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这会导致其在下一次计算的时候会进行修改，然后主线程进行stream out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部会根据设置的poolsize来动态设置那些RenderAsset需要降mipmap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FRenderAssetStreamingMipCalcTask::TryDropMips(TArray&lt;int32&gt;&amp; PrioritizedRenderAssets, int64&amp; MemoryBudgeted, const int64 InMemoryBudget)</t>
+  </si>
+  <si>
+    <t>挨个遍历所有的RenderAsset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StreamingRenderAsset.DropOneMip_Async();</t>
+  </si>
+  <si>
+    <t>只能是降低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int64 FStreamingRenderAsset::DropOneMip_Async()</t>
+  </si>
+  <si>
+    <t>降低当前的BudgetedMips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (RenderAsset &amp;&amp; BudgetedMips &gt; MinAllowedMips)</t>
+  </si>
+  <si>
+    <t>--BudgetedMips;</t>
+  </si>
+  <si>
+    <t>return GetSize(BudgetedMips + 1) - GetSize(BudgetedMips);</t>
+  </si>
+  <si>
+    <t>指令：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r.Streaming.PoolSize</t>
+  </si>
+  <si>
+    <t>-1: Default texture pool size, otherwise the size in MB</t>
+  </si>
+  <si>
+    <t>读取设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FRenderAssetStreamingSettings::Update()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">void UGameEngine::Tick( float DeltaSeconds, bool bIdleMode </t>
+  </si>
+  <si>
+    <t>void FRenderAssetStreamingManager::UpdatePendingStates(bool bUpdateDynamicComponents)</t>
+  </si>
+  <si>
+    <t>Settings.Update();</t>
+  </si>
+  <si>
+    <t>PoolSize = CVarStreamingPoolSize.GetValueOnAnyThread();</t>
+  </si>
+  <si>
+    <t>获取POOL SIZE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！其实也可以代码中动态修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般都是配置设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1490,7 +1616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1601,10 +1727,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50ADB455-A061-4668-9DA3-6692077BF17A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -1617,10 +1743,10 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
@@ -1630,7 +1756,7 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D9" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
@@ -1640,17 +1766,17 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D13" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
@@ -1665,17 +1791,17 @@
     </row>
     <row r="17" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="5:17" x14ac:dyDescent="0.2">
@@ -1685,60 +1811,60 @@
     </row>
     <row r="22" spans="5:17" x14ac:dyDescent="0.2">
       <c r="F22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="5:17" x14ac:dyDescent="0.2">
       <c r="F23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="5:17" x14ac:dyDescent="0.2">
       <c r="F24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="5:17" x14ac:dyDescent="0.2">
       <c r="F26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="5:17" x14ac:dyDescent="0.2">
       <c r="F27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="5:17" x14ac:dyDescent="0.2">
       <c r="F29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="5:17" x14ac:dyDescent="0.2">
       <c r="G30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="5:17" x14ac:dyDescent="0.2">
       <c r="G31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="5:17" x14ac:dyDescent="0.2">
       <c r="G32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="4:7" x14ac:dyDescent="0.2">
@@ -1748,7 +1874,7 @@
     </row>
     <row r="36" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="4:7" x14ac:dyDescent="0.2">
@@ -1758,17 +1884,17 @@
     </row>
     <row r="38" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="4:7" x14ac:dyDescent="0.2">
@@ -1787,8 +1913,248 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N2" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N3" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C8" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C10" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D12" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C14" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="2"/>
+      <c r="C29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D46" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1803,7 +2169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1830,7 +2196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2013,7 +2379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2029,7 +2395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2112,7 +2478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2437,7 +2803,7 @@
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
@@ -2530,23 +2896,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="B2:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C3" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
@@ -2558,6 +2924,121 @@
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D18" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D19" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="H29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2568,7 +3049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/doc/ue_texturestreaming.xlsx
+++ b/doc/ue_texturestreaming.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="210">
   <si>
     <t>图像序列使用Mipmap的方法。该方法可以缩短图像序列的加载时间，但不会牺牲品质</t>
   </si>
@@ -1063,18 +1063,46 @@
     <t>Settings.Update();</t>
   </si>
   <si>
-    <t>PoolSize = CVarStreamingPoolSize.GetValueOnAnyThread();</t>
-  </si>
-  <si>
-    <t>获取POOL SIZE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>！！！其实也可以代码中动态修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>一般都是配置设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置FRenderAssetStreamingMipCalcTask中TextureStream大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckUserSettings();</t>
+  </si>
+  <si>
+    <t>！！！内部使用的是GTexturePoolSize全局变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据系统的池大小配置，设置GTexturePoolSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IConsoleVariable* CVarStreamingPoolSize = IConsoleManager::Get().FindConsoleVariable(TEXT("r.Streaming.PoolSize"));</t>
+  </si>
+  <si>
+    <t>if (CVarStreamingPoolSize)</t>
+  </si>
+  <si>
+    <t>BackedUpStreamingPoolSize = CVarStreamingPoolSize-&gt;GetInt();</t>
+  </si>
+  <si>
+    <t>CVarStreamingPoolSize-&gt;Set(UndefinedTexturePoolSize, ECVF_SetByConsole);</t>
+  </si>
+  <si>
+    <t>设置方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1915,25 +1943,25 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N47"/>
+  <dimension ref="B2:T50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
       <c r="N2" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="N3" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>189</v>
       </c>
@@ -1945,52 +1973,73 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="S8" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="S9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="S10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="S11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D12" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="T12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="T13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C14" s="3" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="S14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>9</v>
       </c>
@@ -2071,80 +2120,99 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:15" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.2">
       <c r="E39" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C43" t="s">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D43" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D44" t="s">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C45" t="s">
+    <row r="47" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D46" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D47" t="s">
-        <v>198</v>
-      </c>
+    <row r="48" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D48" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D50" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/ue_texturestreaming.xlsx
+++ b/doc/ue_texturestreaming.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7700CA9D-439C-4305-AACD-14EF61D01A98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="669" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="669" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="213">
   <si>
     <t>图像序列使用Mipmap的方法。该方法可以缩短图像序列的加载时间，但不会牺牲品质</t>
   </si>
@@ -1103,13 +1104,25 @@
   </si>
   <si>
     <t>设置方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同MIP级别下，Texture的真是数据，没有其他信息，就是纯数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在一个文件里面，根据不同的OFFSET读取不同MIP的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FTexture2DStreamIn_IO_AsyncCreate::AllocateAndLoadMips(const FContext&amp; Context)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1644,7 +1657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1755,7 +1768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B3:Q42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1942,11 +1955,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B2:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2222,22 +2235,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B4:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B5:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2264,10 +2288,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
@@ -2447,10 +2471,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
@@ -2463,7 +2487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A4:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2546,11 +2570,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:U77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2825,7 +2849,7 @@
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
@@ -2964,7 +2988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3117,7 +3141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="C6:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
